--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1209989.861140504</v>
+        <v>1205527.505891888</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.80700165</v>
+        <v>7197684.807001649</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4433866.275682622</v>
+        <v>4433866.275682621</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.6165899389766</v>
+        <v>351.6529887418851</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T12" t="n">
         <v>136.1178674008418</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6910211419383</v>
+        <v>48.54963872249677</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.0460627746974</v>
@@ -1587,13 +1587,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>197.3663013964383</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
-        <v>206.857846510131</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>159.5498436086252</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>18.97199967716838</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.6902671187685</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>97.18433750694822</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23.92290027814828</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>57.14757300380163</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>60.16318077802707</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>45.79369325365119</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.0460627746974</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>28.63468847227337</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U20" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>278.6272796693973</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.17465231309804</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.6902671187685</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>38.48022511909421</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2323,7 +2323,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>189.9122468362367</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>217.8463511559051</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.84097406245667</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>48.54963872249589</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.0460627746974</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.09065747867</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>166.6489556637423</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.77168500760914</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.0183822024971</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>383.9532755574387</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T29" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.1886180189607</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>60.0534997713391</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S31" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>140.0233419077841</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>411.5000861948437</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9003444702288</v>
+        <v>114.2632788814249</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.63420365178708</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>156.3957589643425</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>400.5197501991069</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>393.7508906004003</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.4207062047315</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>132.6013238611628</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.0460627746974</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>194.6933673986994</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2645523750966</v>
+        <v>242.928430207002</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T39" t="n">
         <v>136.1178674008418</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.82038856546525</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.6902671187685</v>
@@ -3717,10 +3717,10 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3333288037839</v>
+        <v>173.1927004075122</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>264.6558918765265</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>368.5022183292866</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3793,19 +3793,19 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T42" t="n">
         <v>136.1178674008418</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>159.5966151961129</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.6902671187685</v>
@@ -3957,16 +3957,16 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>167.9632513929404</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T44" t="n">
-        <v>20.85803435427432</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>228.267045570446</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>71.60381629275079</v>
@@ -4188,10 +4188,10 @@
         <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
-        <v>99.73853217085203</v>
+        <v>12.9083249819595</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>895.4552388231099</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="C11" t="n">
-        <v>468.55450883641</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="D11" t="n">
-        <v>468.55450883641</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E11" t="n">
-        <v>468.55450883641</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F11" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G11" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H11" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I11" t="n">
         <v>86.09345146672831</v>
       </c>
       <c r="J11" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K11" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M11" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N11" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O11" t="n">
         <v>1651.903250255482</v>
@@ -5062,31 +5062,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q11" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R11" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S11" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T11" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.505005925657</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V11" t="n">
-        <v>2113.505005925657</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="W11" t="n">
-        <v>2113.505005925657</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="X11" t="n">
-        <v>1701.785007093404</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="Y11" t="n">
-        <v>1315.30360311464</v>
+        <v>1142.618384189308</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G12" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H12" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J12" t="n">
         <v>144.5298811612101</v>
@@ -5129,16 +5129,16 @@
         <v>503.9498672632496</v>
       </c>
       <c r="M12" t="n">
-        <v>990.0466997665803</v>
+        <v>751.3795283885233</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.366492570714</v>
+        <v>1007.699321192657</v>
       </c>
       <c r="O12" t="n">
-        <v>1477.238310130524</v>
+        <v>1238.571138752467</v>
       </c>
       <c r="P12" t="n">
-        <v>1659.391674476716</v>
+        <v>1420.724503098659</v>
       </c>
       <c r="Q12" t="n">
         <v>1773.044505227723</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.1444231838127</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="C13" t="n">
-        <v>619.1718600627287</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="D13" t="n">
-        <v>619.1718600627287</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="E13" t="n">
-        <v>452.9636542155822</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="F13" t="n">
-        <v>281.1018799901426</v>
+        <v>92.47036613944331</v>
       </c>
       <c r="G13" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H13" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I13" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J13" t="n">
-        <v>86.23013562371108</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K13" t="n">
-        <v>416.6643740856492</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L13" t="n">
-        <v>904.318417264755</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M13" t="n">
-        <v>1435.696868432733</v>
+        <v>1416.50241939368</v>
       </c>
       <c r="N13" t="n">
-        <v>1553.15079414585</v>
+        <v>1930.853118449054</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.990534410735</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P13" t="n">
-        <v>2121.000513751125</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R13" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.274638730567</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.834171281378</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.699495722</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.699495722</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W13" t="n">
-        <v>1216.847091894513</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.487191494071</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y13" t="n">
-        <v>791.1444231838127</v>
+        <v>626.4706721980325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1077.975059030994</v>
+        <v>1297.760030306091</v>
       </c>
       <c r="C14" t="n">
-        <v>1077.975059030994</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="D14" t="n">
-        <v>654.6824382159944</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="E14" t="n">
-        <v>654.6824382159944</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F14" t="n">
-        <v>654.6824382159944</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G14" t="n">
-        <v>252.3776467330133</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H14" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672786</v>
       </c>
       <c r="J14" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922985</v>
       </c>
       <c r="K14" t="n">
-        <v>444.3985098873427</v>
+        <v>444.3985098873423</v>
       </c>
       <c r="L14" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M14" t="n">
         <v>1034.139376672043</v>
@@ -5293,7 +5293,7 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P14" t="n">
         <v>1901.41298331237</v>
@@ -5314,16 +5314,16 @@
         <v>1855.312838196275</v>
       </c>
       <c r="V14" t="n">
-        <v>1497.823423322524</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="W14" t="n">
-        <v>1497.823423322524</v>
+        <v>1458.921488496622</v>
       </c>
       <c r="X14" t="n">
-        <v>1497.823423322524</v>
+        <v>1297.760030306091</v>
       </c>
       <c r="Y14" t="n">
-        <v>1497.823423322524</v>
+        <v>1297.760030306091</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>144.5298811612101</v>
       </c>
       <c r="K15" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L15" t="n">
-        <v>742.6170386413066</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M15" t="n">
-        <v>990.0466997665803</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N15" t="n">
         <v>1246.366492570714</v>
       </c>
       <c r="O15" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P15" t="n">
         <v>1659.391674476716</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.6268587105184</v>
+        <v>472.2380791487705</v>
       </c>
       <c r="C16" t="n">
-        <v>610.6268587105184</v>
+        <v>300.2655160276864</v>
       </c>
       <c r="D16" t="n">
-        <v>447.3100858372891</v>
+        <v>281.1018799901426</v>
       </c>
       <c r="E16" t="n">
         <v>281.1018799901426</v>
@@ -5436,52 +5436,52 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J16" t="n">
-        <v>164.1518522719319</v>
+        <v>102.8688427442759</v>
       </c>
       <c r="K16" t="n">
-        <v>494.58609073387</v>
+        <v>433.303081206214</v>
       </c>
       <c r="L16" t="n">
-        <v>605.8512403218108</v>
+        <v>920.9571243853197</v>
       </c>
       <c r="M16" t="n">
-        <v>1137.229691489788</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N16" t="n">
-        <v>1651.580390545163</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O16" t="n">
-        <v>1883.617037032836</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P16" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q16" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R16" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S16" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T16" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U16" t="n">
-        <v>1491.699495722</v>
+        <v>1497.708615232681</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.988028330029</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="W16" t="n">
-        <v>935.1356245025422</v>
+        <v>941.1447440132233</v>
       </c>
       <c r="X16" t="n">
-        <v>836.9696270207763</v>
+        <v>698.5808474590284</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.6268587105184</v>
+        <v>472.2380791487705</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>893.1922850592944</v>
+        <v>470.3310570125101</v>
       </c>
       <c r="C17" t="n">
-        <v>893.1922850592944</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="D17" t="n">
-        <v>469.8996642442946</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="E17" t="n">
-        <v>469.8996642442946</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="F17" t="n">
-        <v>469.8996642442946</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G17" t="n">
-        <v>67.59487276131352</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H17" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J17" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922997</v>
       </c>
       <c r="K17" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M17" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N17" t="n">
         <v>1352.989294408674</v>
@@ -5533,7 +5533,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P17" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q17" t="n">
         <v>2080.956330428339</v>
@@ -5542,25 +5542,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S17" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T17" t="n">
-        <v>1959.495801320582</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U17" t="n">
-        <v>1701.3036335912</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V17" t="n">
-        <v>1701.3036335912</v>
+        <v>1756.015591051907</v>
       </c>
       <c r="W17" t="n">
-        <v>1304.912283891547</v>
+        <v>1359.624241352254</v>
       </c>
       <c r="X17" t="n">
-        <v>893.1922850592944</v>
+        <v>947.9042425200014</v>
       </c>
       <c r="Y17" t="n">
-        <v>893.1922850592944</v>
+        <v>890.1794213040401</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I18" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J18" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K18" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L18" t="n">
-        <v>742.6170386413066</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M18" t="n">
-        <v>990.0466997665803</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O18" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P18" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.181808943071</v>
       </c>
       <c r="Q18" t="n">
         <v>1773.044505227723</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>276.0629909260246</v>
+        <v>662.6474717962249</v>
       </c>
       <c r="C19" t="n">
-        <v>276.0629909260246</v>
+        <v>490.6749086751408</v>
       </c>
       <c r="D19" t="n">
-        <v>276.0629909260246</v>
+        <v>327.3581358019115</v>
       </c>
       <c r="E19" t="n">
-        <v>215.2921012512498</v>
+        <v>327.3581358019115</v>
       </c>
       <c r="F19" t="n">
-        <v>43.43032702581021</v>
+        <v>281.1018799901427</v>
       </c>
       <c r="G19" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="H19" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I19" t="n">
         <v>43.43032702581021</v>
@@ -5676,49 +5676,49 @@
         <v>164.1518522719319</v>
       </c>
       <c r="K19" t="n">
-        <v>247.303481619848</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L19" t="n">
-        <v>358.5686312077888</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M19" t="n">
-        <v>889.9470823757663</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N19" t="n">
-        <v>1089.021092194644</v>
+        <v>1930.853118449054</v>
       </c>
       <c r="O19" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P19" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q19" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R19" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S19" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T19" t="n">
-        <v>1771.834171281379</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U19" t="n">
-        <v>1491.699495722001</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.98802833003</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W19" t="n">
-        <v>935.1356245025431</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X19" t="n">
-        <v>692.5717279483482</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y19" t="n">
-        <v>466.2289596380903</v>
+        <v>852.8134405082905</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1573.87114156052</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.87114156052</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.87114156052</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.894201708378</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="F20" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G20" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I20" t="n">
         <v>86.09345146672854</v>
@@ -5764,40 +5764,40 @@
         <v>1034.139376672043</v>
       </c>
       <c r="N20" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O20" t="n">
         <v>1651.903250255482</v>
       </c>
       <c r="P20" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S20" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T20" t="n">
-        <v>2113.505005925657</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U20" t="n">
-        <v>1855.312838196275</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="V20" t="n">
-        <v>1855.312838196275</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="W20" t="n">
-        <v>1855.312838196275</v>
+        <v>889.4115236529437</v>
       </c>
       <c r="X20" t="n">
-        <v>1855.312838196275</v>
+        <v>477.691524820691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.87114156052</v>
+        <v>72.3542547755813</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J21" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K21" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L21" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M21" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N21" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O21" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P21" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R21" t="n">
         <v>1815.841701345204</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>387.2646643723338</v>
+        <v>760.6194965566764</v>
       </c>
       <c r="C22" t="n">
-        <v>215.2921012512498</v>
+        <v>588.6469334355924</v>
       </c>
       <c r="D22" t="n">
-        <v>215.2921012512498</v>
+        <v>588.6469334355924</v>
       </c>
       <c r="E22" t="n">
-        <v>215.2921012512498</v>
+        <v>588.6469334355924</v>
       </c>
       <c r="F22" t="n">
-        <v>43.43032702581019</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G22" t="n">
-        <v>43.43032702581019</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H22" t="n">
-        <v>43.43032702581019</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J22" t="n">
         <v>164.1518522719319</v>
       </c>
       <c r="K22" t="n">
-        <v>247.303481619848</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L22" t="n">
-        <v>734.9575247989537</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M22" t="n">
-        <v>972.703315981149</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N22" t="n">
-        <v>1089.021092194643</v>
+        <v>1629.936361294448</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R22" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.699495722</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.988028330029</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="W22" t="n">
-        <v>935.1356245025422</v>
+        <v>1177.128233579</v>
       </c>
       <c r="X22" t="n">
-        <v>692.5717279483473</v>
+        <v>1177.128233579</v>
       </c>
       <c r="Y22" t="n">
-        <v>466.2289596380893</v>
+        <v>950.785465268742</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>896.3079968646525</v>
+        <v>1319.600617679652</v>
       </c>
       <c r="C23" t="n">
-        <v>469.4072668779526</v>
+        <v>892.6998876929524</v>
       </c>
       <c r="D23" t="n">
         <v>469.4072668779526</v>
@@ -6019,22 +6019,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T23" t="n">
-        <v>2171.51635129051</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="U23" t="n">
-        <v>1913.324183561127</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="V23" t="n">
-        <v>1913.324183561127</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="W23" t="n">
-        <v>1721.493631201292</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="X23" t="n">
-        <v>1721.493631201292</v>
+        <v>1739.448981971182</v>
       </c>
       <c r="Y23" t="n">
-        <v>1316.156361156183</v>
+        <v>1739.448981971182</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>64.14840690919138</v>
       </c>
       <c r="J24" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K24" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L24" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M24" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N24" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O24" t="n">
-        <v>1238.571138752467</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P24" t="n">
-        <v>1420.724503098659</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q24" t="n">
         <v>1773.044505227723</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.61114808728</v>
+        <v>436.3047034859659</v>
       </c>
       <c r="C25" t="n">
-        <v>508.638584966196</v>
+        <v>264.332140364882</v>
       </c>
       <c r="D25" t="n">
-        <v>345.3218120929667</v>
+        <v>264.332140364882</v>
       </c>
       <c r="E25" t="n">
-        <v>179.1136062458203</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F25" t="n">
-        <v>179.1136062458203</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G25" t="n">
-        <v>179.1136062458203</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H25" t="n">
         <v>43.43032702581019</v>
@@ -6153,46 +6153,46 @@
         <v>169.3817649716271</v>
       </c>
       <c r="L25" t="n">
-        <v>280.6469145595679</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M25" t="n">
-        <v>574.6703931392688</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N25" t="n">
-        <v>1089.021092194643</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O25" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P25" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q25" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R25" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S25" t="n">
-        <v>2011.274638730567</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T25" t="n">
-        <v>1771.834171281378</v>
+        <v>1932.07588384132</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.699495722</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.988028330029</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="W25" t="n">
-        <v>935.1356245025422</v>
+        <v>1095.377337062484</v>
       </c>
       <c r="X25" t="n">
-        <v>692.5717279483473</v>
+        <v>852.8134405082895</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.5717279483473</v>
+        <v>626.4706721980316</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1168.882031040396</v>
+        <v>1489.764457123477</v>
       </c>
       <c r="C26" t="n">
-        <v>1168.882031040396</v>
+        <v>1062.863727136777</v>
       </c>
       <c r="D26" t="n">
-        <v>745.5894102253965</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E26" t="n">
-        <v>745.5894102253965</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F26" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G26" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H26" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="I26" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J26" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K26" t="n">
-        <v>444.3985098873432</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L26" t="n">
         <v>721.1044354144764</v>
       </c>
       <c r="M26" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N26" t="n">
         <v>1352.989294408674</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P26" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q26" t="n">
         <v>2080.956330428339</v>
@@ -6253,25 +6253,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S26" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T26" t="n">
-        <v>2171.516351290511</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U26" t="n">
-        <v>2171.516351290511</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="V26" t="n">
-        <v>1814.02693641676</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="W26" t="n">
-        <v>1814.02693641676</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="X26" t="n">
-        <v>1402.306937584507</v>
+        <v>1489.764457123477</v>
       </c>
       <c r="Y26" t="n">
-        <v>1402.306937584507</v>
+        <v>1489.764457123477</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I27" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K27" t="n">
-        <v>533.2819540266171</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L27" t="n">
-        <v>742.6170386413066</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M27" t="n">
-        <v>990.0466997665803</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O27" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P27" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q27" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R27" t="n">
         <v>1815.841701345204</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>381.6110959940406</v>
+        <v>556.1976664854024</v>
       </c>
       <c r="C28" t="n">
-        <v>209.6385328729567</v>
+        <v>556.1976664854024</v>
       </c>
       <c r="D28" t="n">
-        <v>209.6385328729567</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="E28" t="n">
-        <v>43.43032702581021</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="F28" t="n">
-        <v>43.43032702581021</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G28" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I28" t="n">
         <v>43.43032702581021</v>
@@ -6387,22 +6387,22 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K28" t="n">
-        <v>169.3817649716271</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L28" t="n">
-        <v>456.8274224341139</v>
+        <v>904.318417264755</v>
       </c>
       <c r="M28" t="n">
-        <v>574.6703931392697</v>
+        <v>1435.696868432733</v>
       </c>
       <c r="N28" t="n">
-        <v>1089.021092194644</v>
+        <v>1552.014644646227</v>
       </c>
       <c r="O28" t="n">
-        <v>1570.860832459529</v>
+        <v>2033.854384911112</v>
       </c>
       <c r="P28" t="n">
-        <v>1969.627016373227</v>
+        <v>2119.864364251502</v>
       </c>
       <c r="Q28" t="n">
         <v>2171.516351290511</v>
@@ -6417,19 +6417,19 @@
         <v>1771.834171281379</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495722001</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.98802833003</v>
+        <v>1490.122703889408</v>
       </c>
       <c r="W28" t="n">
-        <v>935.1356245025431</v>
+        <v>1215.270300061921</v>
       </c>
       <c r="X28" t="n">
-        <v>692.5717279483482</v>
+        <v>972.7064035077259</v>
       </c>
       <c r="Y28" t="n">
-        <v>466.2289596380903</v>
+        <v>746.3636351974679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1281.45526929967</v>
+        <v>891.8471296514098</v>
       </c>
       <c r="C29" t="n">
-        <v>854.5545393129703</v>
+        <v>891.8471296514098</v>
       </c>
       <c r="D29" t="n">
-        <v>431.2619184979706</v>
+        <v>468.55450883641</v>
       </c>
       <c r="E29" t="n">
-        <v>431.2619184979706</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F29" t="n">
         <v>43.43032702581021</v>
@@ -6460,16 +6460,16 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J29" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K29" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M29" t="n">
         <v>1034.139376672043</v>
@@ -6490,25 +6490,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S29" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T29" t="n">
-        <v>1959.495801320582</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U29" t="n">
-        <v>1701.3036335912</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V29" t="n">
-        <v>1701.3036335912</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="W29" t="n">
-        <v>1701.3036335912</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="X29" t="n">
-        <v>1701.3036335912</v>
+        <v>1701.785007093405</v>
       </c>
       <c r="Y29" t="n">
-        <v>1701.3036335912</v>
+        <v>1311.69549394294</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I30" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J30" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K30" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L30" t="n">
-        <v>503.9498672632496</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M30" t="n">
-        <v>751.3795283885233</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N30" t="n">
-        <v>1007.699321192657</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O30" t="n">
-        <v>1238.571138752467</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P30" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.181808943071</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R30" t="n">
         <v>1815.841701345204</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>276.0629909260246</v>
+        <v>1090.144475277052</v>
       </c>
       <c r="C31" t="n">
-        <v>104.0904278049406</v>
+        <v>918.1719121559681</v>
       </c>
       <c r="D31" t="n">
-        <v>104.0904278049406</v>
+        <v>754.8551392827388</v>
       </c>
       <c r="E31" t="n">
-        <v>43.43032702581021</v>
+        <v>588.6469334355924</v>
       </c>
       <c r="F31" t="n">
-        <v>43.43032702581021</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G31" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H31" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I31" t="n">
         <v>43.43032702581021</v>
@@ -6624,22 +6624,22 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8757035582115</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L31" t="n">
-        <v>834.5297467373173</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M31" t="n">
-        <v>952.372717442473</v>
+        <v>774.8787788558886</v>
       </c>
       <c r="N31" t="n">
-        <v>1466.723416497847</v>
+        <v>1289.229477911263</v>
       </c>
       <c r="O31" t="n">
-        <v>1570.860832459529</v>
+        <v>1771.069218176148</v>
       </c>
       <c r="P31" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q31" t="n">
         <v>2171.516351290511</v>
@@ -6648,25 +6648,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S31" t="n">
-        <v>2011.274638730568</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T31" t="n">
-        <v>1771.834171281379</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="U31" t="n">
-        <v>1491.699495722001</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.98802833003</v>
+        <v>2024.069512681058</v>
       </c>
       <c r="W31" t="n">
-        <v>935.1356245025431</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="X31" t="n">
-        <v>692.5717279483482</v>
+        <v>1506.653212299376</v>
       </c>
       <c r="Y31" t="n">
-        <v>466.2289596380903</v>
+        <v>1280.310443989118</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>885.063919600017</v>
+        <v>1998.087552510077</v>
       </c>
       <c r="C32" t="n">
-        <v>469.4072668779527</v>
+        <v>1571.186822523377</v>
       </c>
       <c r="D32" t="n">
-        <v>469.4072668779527</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="E32" t="n">
-        <v>43.43032702581021</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="F32" t="n">
-        <v>43.43032702581021</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G32" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H32" t="n">
         <v>43.43032702581021</v>
@@ -6700,16 +6700,16 @@
         <v>86.09345146672854</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922997</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873435</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144769</v>
       </c>
       <c r="M32" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N32" t="n">
         <v>1352.989294408674</v>
@@ -6727,25 +6727,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S32" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T32" t="n">
-        <v>1959.495801320582</v>
+        <v>1998.087552510077</v>
       </c>
       <c r="U32" t="n">
-        <v>1701.3036335912</v>
+        <v>1998.087552510077</v>
       </c>
       <c r="V32" t="n">
-        <v>1701.3036335912</v>
+        <v>1998.087552510077</v>
       </c>
       <c r="W32" t="n">
-        <v>1304.912283891547</v>
+        <v>1998.087552510077</v>
       </c>
       <c r="X32" t="n">
-        <v>1304.912283891547</v>
+        <v>1998.087552510077</v>
       </c>
       <c r="Y32" t="n">
-        <v>1304.912283891547</v>
+        <v>1998.087552510077</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>64.14840690919139</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K33" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M33" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N33" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O33" t="n">
-        <v>1238.571138752467</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P33" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q33" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R33" t="n">
         <v>1815.841701345204</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>378.7196630201235</v>
+        <v>777.2581630637696</v>
       </c>
       <c r="C34" t="n">
-        <v>206.7470998990395</v>
+        <v>605.2855999426856</v>
       </c>
       <c r="D34" t="n">
-        <v>43.43032702581021</v>
+        <v>605.2855999426856</v>
       </c>
       <c r="E34" t="n">
-        <v>43.43032702581021</v>
+        <v>439.0773940955391</v>
       </c>
       <c r="F34" t="n">
-        <v>43.43032702581021</v>
+        <v>281.1018799901427</v>
       </c>
       <c r="G34" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="H34" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I34" t="n">
         <v>43.43032702581021</v>
@@ -6864,19 +6864,19 @@
         <v>169.3817649716271</v>
       </c>
       <c r="L34" t="n">
-        <v>280.6469145595679</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M34" t="n">
-        <v>812.0253657275454</v>
+        <v>1038.800095090476</v>
       </c>
       <c r="N34" t="n">
-        <v>1326.37606478292</v>
+        <v>1553.150794145851</v>
       </c>
       <c r="O34" t="n">
-        <v>1808.215805047805</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P34" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q34" t="n">
         <v>2171.516351290511</v>
@@ -6897,13 +6897,13 @@
         <v>1209.98802833003</v>
       </c>
       <c r="W34" t="n">
-        <v>935.1356245025431</v>
+        <v>1209.98802833003</v>
       </c>
       <c r="X34" t="n">
-        <v>692.5717279483482</v>
+        <v>967.4241317758352</v>
       </c>
       <c r="Y34" t="n">
-        <v>466.2289596380903</v>
+        <v>967.4241317758352</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1297.265291934475</v>
+        <v>1295.928469310491</v>
       </c>
       <c r="C35" t="n">
-        <v>1297.265291934475</v>
+        <v>869.027739323791</v>
       </c>
       <c r="D35" t="n">
-        <v>873.9726711194749</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="E35" t="n">
-        <v>447.9957312673324</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="F35" t="n">
-        <v>43.43032702581021</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G35" t="n">
         <v>43.43032702581021</v>
@@ -6934,16 +6934,16 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I35" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J35" t="n">
-        <v>226.1880352922994</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K35" t="n">
-        <v>444.3985098873432</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L35" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M35" t="n">
         <v>1034.139376672043</v>
@@ -6955,7 +6955,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P35" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q35" t="n">
         <v>2080.956330428339</v>
@@ -6976,13 +6976,13 @@
         <v>2113.505005925658</v>
       </c>
       <c r="W35" t="n">
-        <v>1717.113656226005</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="X35" t="n">
-        <v>1717.113656226005</v>
+        <v>1715.776833602021</v>
       </c>
       <c r="Y35" t="n">
-        <v>1717.113656226005</v>
+        <v>1715.776833602021</v>
       </c>
     </row>
     <row r="36">
@@ -7037,7 +7037,7 @@
         <v>1420.724503098659</v>
       </c>
       <c r="Q36" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.9656200373514</v>
+        <v>678.8686000401617</v>
       </c>
       <c r="C37" t="n">
-        <v>281.9656200373514</v>
+        <v>506.8960369190777</v>
       </c>
       <c r="D37" t="n">
-        <v>281.9656200373514</v>
+        <v>343.5792640458484</v>
       </c>
       <c r="E37" t="n">
-        <v>115.757414190205</v>
+        <v>177.3710581987019</v>
       </c>
       <c r="F37" t="n">
-        <v>115.757414190205</v>
+        <v>177.3710581987019</v>
       </c>
       <c r="G37" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H37" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I37" t="n">
         <v>43.43032702581021</v>
@@ -7098,19 +7098,19 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K37" t="n">
-        <v>169.3817649716271</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L37" t="n">
-        <v>441.3248648131724</v>
+        <v>904.318417264755</v>
       </c>
       <c r="M37" t="n">
-        <v>972.7033159811499</v>
+        <v>1022.161387969911</v>
       </c>
       <c r="N37" t="n">
-        <v>1089.021092194644</v>
+        <v>1138.479164183405</v>
       </c>
       <c r="O37" t="n">
-        <v>1570.860832459529</v>
+        <v>1620.31890444829</v>
       </c>
       <c r="P37" t="n">
         <v>1969.627016373227</v>
@@ -7119,28 +7119,28 @@
         <v>2171.516351290511</v>
       </c>
       <c r="R37" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S37" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T37" t="n">
-        <v>1771.834171281379</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U37" t="n">
-        <v>1491.699495722001</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.98802833003</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W37" t="n">
-        <v>935.1356245025431</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X37" t="n">
-        <v>692.5717279483482</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="Y37" t="n">
-        <v>466.2289596380903</v>
+        <v>869.0345687522274</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1346.330716953871</v>
+        <v>1543.995041081979</v>
       </c>
       <c r="C38" t="n">
-        <v>919.4299869671711</v>
+        <v>1117.094311095279</v>
       </c>
       <c r="D38" t="n">
-        <v>722.7700198977777</v>
+        <v>1117.094311095279</v>
       </c>
       <c r="E38" t="n">
-        <v>722.7700198977777</v>
+        <v>691.1173712431367</v>
       </c>
       <c r="F38" t="n">
-        <v>722.7700198977777</v>
+        <v>691.1173712431367</v>
       </c>
       <c r="G38" t="n">
-        <v>320.4652284147967</v>
+        <v>288.8125797601556</v>
       </c>
       <c r="H38" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J38" t="n">
-        <v>226.1880352922992</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K38" t="n">
-        <v>444.3985098873434</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144769</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M38" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N38" t="n">
         <v>1352.989294408674</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.903250255483</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P38" t="n">
         <v>1901.412983312371</v>
@@ -7201,25 +7201,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S38" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T38" t="n">
-        <v>2171.516351290511</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U38" t="n">
-        <v>2171.516351290511</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="V38" t="n">
-        <v>2171.516351290511</v>
+        <v>1543.995041081979</v>
       </c>
       <c r="W38" t="n">
-        <v>2171.516351290511</v>
+        <v>1543.995041081979</v>
       </c>
       <c r="X38" t="n">
-        <v>2171.516351290511</v>
+        <v>1543.995041081979</v>
       </c>
       <c r="Y38" t="n">
-        <v>1766.179081245401</v>
+        <v>1543.995041081979</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I39" t="n">
-        <v>64.14840690919141</v>
+        <v>64.14840690919139</v>
       </c>
       <c r="J39" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K39" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L39" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M39" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N39" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O39" t="n">
-        <v>1238.571138752467</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P39" t="n">
         <v>1659.391674476716</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.7744583179958</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C40" t="n">
-        <v>557.7744583179958</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D40" t="n">
-        <v>557.7744583179958</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E40" t="n">
-        <v>391.5662524708493</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F40" t="n">
-        <v>219.7044782454098</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G40" t="n">
-        <v>54.36001244547208</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H40" t="n">
         <v>43.43032702581021</v>
@@ -7332,52 +7332,52 @@
         <v>43.43032702581021</v>
       </c>
       <c r="J40" t="n">
-        <v>86.23013562371111</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K40" t="n">
-        <v>244.7829969566589</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L40" t="n">
-        <v>356.0481465445997</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M40" t="n">
-        <v>887.4265977125772</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.777296767952</v>
+        <v>1930.853118449054</v>
       </c>
       <c r="O40" t="n">
-        <v>1883.617037032837</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P40" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q40" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R40" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S40" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T40" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U40" t="n">
-        <v>1491.699495722001</v>
+        <v>1602.90116916831</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.699495722001</v>
+        <v>1321.189701776339</v>
       </c>
       <c r="W40" t="n">
-        <v>1216.847091894514</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X40" t="n">
-        <v>974.2831953403194</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y40" t="n">
-        <v>747.9404270300614</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>735.8836925500732</v>
+        <v>1693.656641634128</v>
       </c>
       <c r="C41" t="n">
-        <v>468.55450883641</v>
+        <v>1266.755911647428</v>
       </c>
       <c r="D41" t="n">
-        <v>468.55450883641</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E41" t="n">
         <v>468.55450883641</v>
@@ -7408,19 +7408,19 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I41" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J41" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922994</v>
       </c>
       <c r="K41" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L41" t="n">
         <v>721.1044354144764</v>
       </c>
       <c r="M41" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N41" t="n">
         <v>1352.989294408674</v>
@@ -7441,22 +7441,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T41" t="n">
-        <v>1901.48445595573</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U41" t="n">
-        <v>1901.48445595573</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V41" t="n">
-        <v>1543.995041081979</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="W41" t="n">
-        <v>1147.603691382326</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="X41" t="n">
-        <v>735.8836925500732</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="Y41" t="n">
-        <v>735.8836925500732</v>
+        <v>2113.505005925658</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I42" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K42" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L42" t="n">
-        <v>503.9498672632496</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M42" t="n">
-        <v>751.3795283885233</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N42" t="n">
-        <v>1007.699321192657</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O42" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P42" t="n">
-        <v>1420.724503098659</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q42" t="n">
         <v>1667.589004942817</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.1172266282538</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C43" t="n">
-        <v>612.1446635071698</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D43" t="n">
-        <v>448.8278906339405</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E43" t="n">
-        <v>448.8278906339405</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F43" t="n">
-        <v>276.9661164085009</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G43" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H43" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I43" t="n">
         <v>43.43032702581021</v>
@@ -7572,49 +7572,49 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K43" t="n">
-        <v>416.6643740856492</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L43" t="n">
-        <v>527.92952367359</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M43" t="n">
-        <v>1059.307974841568</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N43" t="n">
-        <v>1573.658673896942</v>
+        <v>1618.096913875747</v>
       </c>
       <c r="O43" t="n">
-        <v>1883.617037032837</v>
+        <v>1722.234329837428</v>
       </c>
       <c r="P43" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q43" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R43" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S43" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T43" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U43" t="n">
-        <v>1491.699495722001</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.699495722001</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="W43" t="n">
-        <v>1216.847091894514</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X43" t="n">
-        <v>974.2831953403194</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y43" t="n">
-        <v>974.2831953403194</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>226.1880352922992</v>
       </c>
       <c r="K44" t="n">
-        <v>444.3985098873429</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L44" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M44" t="n">
         <v>1034.139376672044</v>
@@ -7666,7 +7666,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P44" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q44" t="n">
         <v>2080.956330428339</v>
@@ -7678,22 +7678,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T44" t="n">
-        <v>2092.436284355684</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U44" t="n">
-        <v>2092.436284355684</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V44" t="n">
-        <v>2092.436284355684</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="W44" t="n">
-        <v>1696.044934656031</v>
+        <v>1101.432073622872</v>
       </c>
       <c r="X44" t="n">
-        <v>1696.044934656031</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.707664610921</v>
+        <v>870.8593003193911</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>954.6280860161909</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C45" t="n">
-        <v>837.1221825336956</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D45" t="n">
-        <v>733.2822240489807</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E45" t="n">
-        <v>628.5802903219179</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F45" t="n">
-        <v>534.9344600048221</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G45" t="n">
-        <v>441.969119124852</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H45" t="n">
-        <v>399.1049769711171</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I45" t="n">
-        <v>419.8230568544982</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J45" t="n">
-        <v>500.2045311065169</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K45" t="n">
-        <v>650.2894325938669</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L45" t="n">
-        <v>859.6245172085564</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.05417833383</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N45" t="n">
-        <v>1363.373971137964</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O45" t="n">
-        <v>1594.245788697773</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P45" t="n">
-        <v>1776.399153043966</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q45" t="n">
-        <v>2128.71915517303</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R45" t="n">
-        <v>2171.516351290511</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S45" t="n">
-        <v>2110.409230482352</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T45" t="n">
-        <v>1972.916435127966</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U45" t="n">
-        <v>1788.219846343815</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V45" t="n">
-        <v>1583.246707483081</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W45" t="n">
-        <v>1386.725330316298</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X45" t="n">
-        <v>1223.247984082961</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1083.555095436254</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.7574662834443</v>
+        <v>782.5994218316024</v>
       </c>
       <c r="C46" t="n">
-        <v>414.7574662834443</v>
+        <v>610.6268587105184</v>
       </c>
       <c r="D46" t="n">
-        <v>251.440693410215</v>
+        <v>447.3100858372891</v>
       </c>
       <c r="E46" t="n">
-        <v>251.440693410215</v>
+        <v>281.1018799901427</v>
       </c>
       <c r="F46" t="n">
-        <v>251.440693410215</v>
+        <v>281.1018799901427</v>
       </c>
       <c r="G46" t="n">
-        <v>251.440693410215</v>
+        <v>115.757414190205</v>
       </c>
       <c r="H46" t="n">
         <v>115.757414190205</v>
@@ -7809,22 +7809,22 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K46" t="n">
-        <v>169.3817649716271</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4216439224989</v>
+        <v>854.860345275994</v>
       </c>
       <c r="M46" t="n">
-        <v>1038.800095090476</v>
+        <v>972.7033159811497</v>
       </c>
       <c r="N46" t="n">
-        <v>1553.150794145851</v>
+        <v>1089.021092194644</v>
       </c>
       <c r="O46" t="n">
-        <v>2034.990534410736</v>
+        <v>1570.860832459529</v>
       </c>
       <c r="P46" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q46" t="n">
         <v>2171.516351290511</v>
@@ -7836,22 +7836,22 @@
         <v>2011.274638730568</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.528646638799</v>
+        <v>1998.235926627579</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.393971079421</v>
+        <v>1998.235926627579</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.68250368745</v>
+        <v>1716.524459235608</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.830099859963</v>
+        <v>1441.672055408121</v>
       </c>
       <c r="X46" t="n">
-        <v>831.2662033057679</v>
+        <v>1199.108158853926</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.92343499551</v>
+        <v>972.765390543668</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>241.0779508869259</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,13 +8856,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>319.6154694702507</v>
       </c>
       <c r="N13" t="n">
-        <v>1.147625757195044</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="L15" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>16.80677486925735</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>129.1911419454457</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>217.3837025592372</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>83.59215515695313</v>
+        <v>303.9563203581884</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>121.1139600778177</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>303.9563203581885</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>229.0653831948789</v>
       </c>
       <c r="M25" t="n">
-        <v>177.960108964187</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>177.9601089641879</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>1.147625757195932</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>179.2868066531155</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>266.5871881157452</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>134.5572435284354</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>266.5871881157451</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>76.16286059094109</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>134.5572435284354</v>
+        <v>241.0779508869262</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>162.3009598521258</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>265.9577096813603</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>76.16286059094121</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>303.9563203581884</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>110.8629952007464</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.5572435284352</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>316.5301801449921</v>
       </c>
       <c r="O43" t="n">
-        <v>207.8999466406192</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>241.0779508869257</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>229.0653831948798</v>
+        <v>330.2331531337413</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.66730740568192</v>
+        <v>49.6309086027735</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>115.1413824194415</v>
       </c>
       <c r="H13" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>42.77195619221465</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>67.40670586496555</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>248.052955235305</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,13 +23655,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>142.7116054673286</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>142.9539200817047</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>250.3416520969483</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>344.136324340857</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.3829430106479</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>124.349463229534</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I19" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>387.0151921763414</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>122.6566176752613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.089656711847</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>233.6236546701179</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>202.5151893664198</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>189.7564476880251</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.4233349624883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>115.9964850661791</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I25" t="n">
         <v>71.60381629275079</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>184.5592231699448</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>252.4107389431074</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.4926240173359</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>23.6652229419999</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>36.91966443505504</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.2817435681513</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>15.0952793256979</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.4926240173359</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.8710108102673</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>11.13163649198918</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>95.63706558880399</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.6301053731579</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>13.74739751884266</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>20.35318979338683</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>274.2645523750966</v>
@@ -25216,10 +25216,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>13.85190824352986</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.843602820213533</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6910211419383</v>
+        <v>31.08969728077551</v>
       </c>
       <c r="H37" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>224.3663272081503</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>31.33612216809462</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H40" t="n">
-        <v>123.5060578623447</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
         <v>71.60381629275079</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>104.1406283962717</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>157.9758308103064</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>50.55747627756307</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U41" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.094405945825372</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H43" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>104.1406283962717</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>189.0423101159545</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>179.3357532734842</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>137.3075306038454</v>
+        <v>224.1377377927379</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>333609.9610043443</v>
+        <v>333609.9610043445</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>333609.9610043445</v>
+        <v>333609.9610043443</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>333609.9610043445</v>
+        <v>333609.9610043444</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>333609.9610043445</v>
+        <v>333609.9610043444</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>333609.9610043445</v>
+        <v>333609.9610043444</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487693.629700738</v>
+        <v>487693.6297007378</v>
       </c>
       <c r="C2" t="n">
         <v>487693.6297007379</v>
       </c>
       <c r="D2" t="n">
-        <v>487704.0069784229</v>
+        <v>487704.0069784227</v>
       </c>
       <c r="E2" t="n">
-        <v>292986.6596984892</v>
+        <v>292986.6596984893</v>
       </c>
       <c r="F2" t="n">
         <v>292986.6596984892</v>
       </c>
       <c r="G2" t="n">
-        <v>292986.6596984893</v>
+        <v>292986.6596984894</v>
       </c>
       <c r="H2" t="n">
         <v>292986.6596984892</v>
       </c>
       <c r="I2" t="n">
-        <v>292986.6596984891</v>
+        <v>292986.6596984892</v>
       </c>
       <c r="J2" t="n">
-        <v>292986.6596984891</v>
+        <v>292986.6596984893</v>
       </c>
       <c r="K2" t="n">
-        <v>292986.6596984893</v>
+        <v>292986.6596984892</v>
       </c>
       <c r="L2" t="n">
         <v>292986.6596984892</v>
       </c>
       <c r="M2" t="n">
-        <v>292986.6596984892</v>
+        <v>292986.6596984894</v>
       </c>
       <c r="N2" t="n">
-        <v>292986.6596984892</v>
+        <v>292986.6596984894</v>
       </c>
       <c r="O2" t="n">
         <v>292986.6596984892</v>
       </c>
       <c r="P2" t="n">
-        <v>292986.6596984891</v>
+        <v>292986.6596984893</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263605</v>
+        <v>533917.0150263608</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135287.64020175</v>
+        <v>135287.6402017501</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>313397.1105558039</v>
       </c>
       <c r="E4" t="n">
+        <v>23836.70093362175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23836.70093362173</v>
+      </c>
+      <c r="G4" t="n">
         <v>23836.70093362174</v>
       </c>
-      <c r="F4" t="n">
-        <v>23836.70093362174</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>23836.70093362175</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23836.70093362174</v>
       </c>
       <c r="I4" t="n">
         <v>23836.70093362174</v>
@@ -26447,16 +26447,16 @@
         <v>23836.70093362175</v>
       </c>
       <c r="L4" t="n">
-        <v>23836.70093362174</v>
+        <v>23836.70093362175</v>
       </c>
       <c r="M4" t="n">
         <v>23836.70093362175</v>
       </c>
       <c r="N4" t="n">
-        <v>23836.70093362174</v>
+        <v>23836.70093362175</v>
       </c>
       <c r="O4" t="n">
-        <v>23836.70093362174</v>
+        <v>23836.70093362175</v>
       </c>
       <c r="P4" t="n">
         <v>23836.70093362174</v>
@@ -26478,7 +26478,7 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="F5" t="n">
         <v>43928.07778537245</v>
@@ -26487,7 +26487,7 @@
         <v>43928.07778537246</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="I5" t="n">
         <v>43928.07778537245</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128381.6242217709</v>
+        <v>128359.9105802743</v>
       </c>
       <c r="C6" t="n">
-        <v>128381.6242217708</v>
+        <v>128359.9105802745</v>
       </c>
       <c r="D6" t="n">
-        <v>107173.8900071669</v>
+        <v>107152.2068870754</v>
       </c>
       <c r="E6" t="n">
-        <v>-308695.1340468655</v>
+        <v>-309289.5152471921</v>
       </c>
       <c r="F6" t="n">
-        <v>225221.8809794951</v>
+        <v>224627.4997791686</v>
       </c>
       <c r="G6" t="n">
-        <v>225221.8809794951</v>
+        <v>224627.4997791687</v>
       </c>
       <c r="H6" t="n">
-        <v>225221.8809794951</v>
+        <v>224627.4997791686</v>
       </c>
       <c r="I6" t="n">
-        <v>225221.8809794949</v>
+        <v>224627.4997791685</v>
       </c>
       <c r="J6" t="n">
-        <v>225221.8809794949</v>
+        <v>224627.4997791686</v>
       </c>
       <c r="K6" t="n">
-        <v>225221.8809794951</v>
+        <v>224627.4997791686</v>
       </c>
       <c r="L6" t="n">
-        <v>225221.880979495</v>
+        <v>224627.4997791686</v>
       </c>
       <c r="M6" t="n">
-        <v>89934.24077774491</v>
+        <v>89339.85957741858</v>
       </c>
       <c r="N6" t="n">
-        <v>225221.880979495</v>
+        <v>224627.4997791687</v>
       </c>
       <c r="O6" t="n">
-        <v>225221.880979495</v>
+        <v>224627.4997791686</v>
       </c>
       <c r="P6" t="n">
-        <v>225221.8809794949</v>
+        <v>224627.4997791686</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="F4" t="n">
         <v>542.8790878226274</v>
@@ -26807,7 +26807,7 @@
         <v>542.8790878226276</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="I4" t="n">
         <v>542.8790878226274</v>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>462.8128881052922</v>
+        <v>462.8128881052923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H11" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I11" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J11" t="n">
         <v>170.9296401174761</v>
@@ -31767,22 +31767,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L11" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M11" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N11" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O11" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P11" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q11" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R11" t="n">
         <v>126.5074184424443</v>
@@ -31791,7 +31791,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T11" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U11" t="n">
         <v>0.1611142574635629</v>
@@ -31837,10 +31837,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I12" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K12" t="n">
         <v>174.0001444266162</v>
@@ -31864,16 +31864,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R12" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S12" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T12" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H13" t="n">
         <v>8.031859379117209</v>
@@ -31919,10 +31919,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J13" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K13" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L13" t="n">
         <v>134.3077998835202</v>
@@ -31940,7 +31940,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R13" t="n">
         <v>40.61919886412441</v>
@@ -31949,7 +31949,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T13" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U13" t="n">
         <v>0.04927521091482952</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H14" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I14" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J14" t="n">
         <v>170.9296401174761</v>
@@ -32004,22 +32004,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M14" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P14" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R14" t="n">
         <v>126.5074184424443</v>
@@ -32028,7 +32028,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T14" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U14" t="n">
         <v>0.1611142574635629</v>
@@ -32074,10 +32074,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K15" t="n">
         <v>174.0001444266162</v>
@@ -32101,16 +32101,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S15" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H16" t="n">
         <v>8.031859379117209</v>
@@ -32156,10 +32156,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L16" t="n">
         <v>134.3077998835202</v>
@@ -32177,7 +32177,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R16" t="n">
         <v>40.61919886412441</v>
@@ -32186,7 +32186,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U16" t="n">
         <v>0.04927521091482952</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H38" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I38" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J38" t="n">
         <v>170.9296401174761</v>
@@ -33900,22 +33900,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L38" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M38" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N38" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O38" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P38" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R38" t="n">
         <v>126.5074184424443</v>
@@ -33924,7 +33924,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T38" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U38" t="n">
         <v>0.1611142574635629</v>
@@ -33970,10 +33970,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I39" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J39" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K39" t="n">
         <v>174.0001444266162</v>
@@ -33997,16 +33997,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R39" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S39" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T39" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H40" t="n">
         <v>8.031859379117209</v>
@@ -34052,10 +34052,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J40" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K40" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L40" t="n">
         <v>134.3077998835202</v>
@@ -34073,7 +34073,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R40" t="n">
         <v>40.61919886412441</v>
@@ -34082,7 +34082,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T40" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U40" t="n">
         <v>0.04927521091482952</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H41" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I41" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J41" t="n">
         <v>170.9296401174761</v>
@@ -34137,22 +34137,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L41" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M41" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N41" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O41" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P41" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R41" t="n">
         <v>126.5074184424443</v>
@@ -34161,7 +34161,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T41" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U41" t="n">
         <v>0.1611142574635629</v>
@@ -34207,10 +34207,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I42" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J42" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K42" t="n">
         <v>174.0001444266162</v>
@@ -34234,16 +34234,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R42" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S42" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T42" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H43" t="n">
         <v>8.031859379117209</v>
@@ -34289,10 +34289,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J43" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K43" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L43" t="n">
         <v>134.3077998835202</v>
@@ -34310,7 +34310,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R43" t="n">
         <v>40.61919886412441</v>
@@ -34319,7 +34319,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T43" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U43" t="n">
         <v>0.04927521091482952</v>
@@ -34386,7 +34386,7 @@
         <v>339.3242480901739</v>
       </c>
       <c r="P44" t="n">
-        <v>289.6053952010278</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q44" t="n">
         <v>217.4815908833543</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J11" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K11" t="n">
         <v>220.4146208030745</v>
@@ -35421,10 +35421,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O11" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P11" t="n">
         <v>252.0300333907961</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J12" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K12" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M12" t="n">
-        <v>491.0069015185159</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N12" t="n">
         <v>258.908881620337</v>
@@ -35509,10 +35509,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.8008391424319</v>
+        <v>355.8787900293578</v>
       </c>
       <c r="R12" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K13" t="n">
         <v>333.7719580423617</v>
@@ -35576,19 +35576,19 @@
         <v>492.5798415950563</v>
       </c>
       <c r="M13" t="n">
-        <v>536.7459102706844</v>
+        <v>438.6487732128322</v>
       </c>
       <c r="N13" t="n">
-        <v>118.6403290031488</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O13" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P13" t="n">
-        <v>86.87876701049534</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.02609852463075</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K14" t="n">
         <v>220.4146208030745</v>
@@ -35658,10 +35658,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P14" t="n">
         <v>252.0300333907961</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J15" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K15" t="n">
-        <v>151.6009105932828</v>
+        <v>392.6788614802089</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5275313058046</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M15" t="n">
         <v>249.9289506315896</v>
@@ -35749,7 +35749,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R15" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.9409345920422</v>
+        <v>60.03890476612694</v>
       </c>
       <c r="K16" t="n">
         <v>333.7719580423617</v>
       </c>
       <c r="L16" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M16" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N16" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3804509976494</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P16" t="n">
-        <v>86.87876701049534</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J18" t="n">
         <v>81.19340833537241</v>
@@ -35968,7 +35968,7 @@
         <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5275313058046</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M18" t="n">
         <v>249.9289506315896</v>
@@ -35983,7 +35983,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.8008391424319</v>
+        <v>332.1845417016691</v>
       </c>
       <c r="R18" t="n">
         <v>43.22949102775821</v>
@@ -36044,25 +36044,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K19" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L19" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M19" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N19" t="n">
-        <v>201.0848584029069</v>
+        <v>421.4490236041422</v>
       </c>
       <c r="O19" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P19" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J21" t="n">
-        <v>81.19340833537241</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K21" t="n">
         <v>151.6009105932828</v>
@@ -36217,13 +36217,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P21" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q21" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R21" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K22" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L22" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M22" t="n">
-        <v>240.1472638203992</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N22" t="n">
         <v>117.4927032459538</v>
       </c>
       <c r="O22" t="n">
-        <v>486.7068083483686</v>
+        <v>409.1456294103921</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>20.92735341755675</v>
       </c>
       <c r="J24" t="n">
-        <v>81.19340833537241</v>
+        <v>322.2713592222987</v>
       </c>
       <c r="K24" t="n">
         <v>151.6009105932828</v>
@@ -36457,7 +36457,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q24" t="n">
-        <v>355.8787900293581</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R24" t="n">
         <v>43.22949102775821</v>
@@ -36521,10 +36521,10 @@
         <v>83.99154479587474</v>
       </c>
       <c r="L25" t="n">
-        <v>112.389039987819</v>
+        <v>341.4544231826979</v>
       </c>
       <c r="M25" t="n">
-        <v>296.9934127067685</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N25" t="n">
         <v>519.5461606619943</v>
@@ -36533,10 +36533,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P25" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J27" t="n">
         <v>81.19340833537241</v>
       </c>
       <c r="K27" t="n">
-        <v>392.6788614802091</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L27" t="n">
         <v>211.4495804188783</v>
@@ -36691,13 +36691,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P27" t="n">
-        <v>183.9932973193861</v>
+        <v>294.8562925201327</v>
       </c>
       <c r="Q27" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R27" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>43.23212989686958</v>
       </c>
       <c r="K28" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L28" t="n">
-        <v>290.3491489520069</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M28" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N28" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O28" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P28" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.9286211285692</v>
+        <v>52.17372428182669</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>301.9332887341497</v>
       </c>
       <c r="P29" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907967</v>
       </c>
       <c r="Q29" t="n">
         <v>181.3569162787562</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J30" t="n">
         <v>81.19340833537241</v>
@@ -36928,13 +36928,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P30" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q30" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431784</v>
       </c>
       <c r="R30" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>43.23212989686958</v>
       </c>
       <c r="K31" t="n">
-        <v>263.2783514489903</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L31" t="n">
         <v>492.5798415950563</v>
@@ -37004,13 +37004,13 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O31" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P31" t="n">
-        <v>402.7941251653515</v>
+        <v>353.4659551262405</v>
       </c>
       <c r="Q31" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>43.09406509183668</v>
       </c>
       <c r="J32" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318901</v>
       </c>
       <c r="K32" t="n">
         <v>220.4146208030745</v>
@@ -37080,7 +37080,7 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N32" t="n">
-        <v>322.0706239763949</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O32" t="n">
         <v>301.9332887341497</v>
@@ -37147,7 +37147,7 @@
         <v>20.92735341755675</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537241</v>
+        <v>322.2713592222987</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
@@ -37165,13 +37165,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P33" t="n">
-        <v>318.5505408478215</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q33" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R33" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,10 +37232,10 @@
         <v>83.99154479587474</v>
       </c>
       <c r="L34" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M34" t="n">
-        <v>536.7459102706844</v>
+        <v>385.6204918583267</v>
       </c>
       <c r="N34" t="n">
         <v>519.5461606619943</v>
@@ -37244,10 +37244,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P34" t="n">
-        <v>163.0416276014364</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q36" t="n">
-        <v>249.3580826708673</v>
+        <v>355.8787900293581</v>
       </c>
       <c r="R36" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>43.23212989686958</v>
       </c>
       <c r="K37" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L37" t="n">
-        <v>274.6899998399448</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M37" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N37" t="n">
         <v>117.4927032459538</v>
@@ -37481,7 +37481,7 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P37" t="n">
-        <v>402.7941251653515</v>
+        <v>352.8364766918556</v>
       </c>
       <c r="Q37" t="n">
         <v>203.9286211285692</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J38" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K38" t="n">
-        <v>220.414620803075</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L38" t="n">
         <v>279.5009348758924</v>
@@ -37554,10 +37554,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N38" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P38" t="n">
         <v>252.0300333907961</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755676</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J39" t="n">
-        <v>81.19340833537242</v>
+        <v>81.19340833537241</v>
       </c>
       <c r="K39" t="n">
-        <v>151.6009105932828</v>
+        <v>392.6788614802091</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M39" t="n">
         <v>249.9289506315896</v>
@@ -37639,13 +37639,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P39" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q39" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R39" t="n">
-        <v>43.22949102775823</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K40" t="n">
-        <v>160.154405386816</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L40" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M40" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N40" t="n">
-        <v>519.5461606619943</v>
+        <v>421.4490236041422</v>
       </c>
       <c r="O40" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P40" t="n">
-        <v>86.87876701049535</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J41" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K41" t="n">
         <v>220.4146208030745</v>
@@ -37791,10 +37791,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N41" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O41" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P41" t="n">
         <v>252.0300333907961</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537242</v>
+        <v>81.19340833537241</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L42" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M42" t="n">
         <v>249.9289506315896</v>
@@ -37873,13 +37873,13 @@
         <v>258.908881620337</v>
       </c>
       <c r="O42" t="n">
-        <v>233.2038561210199</v>
+        <v>344.0668513217664</v>
       </c>
       <c r="P42" t="n">
         <v>183.9932973193861</v>
       </c>
       <c r="Q42" t="n">
-        <v>249.3580826708671</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R42" t="n">
         <v>149.7501983862489</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.23212989686959</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K43" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L43" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M43" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N43" t="n">
-        <v>519.5461606619943</v>
+        <v>434.0228833909458</v>
       </c>
       <c r="O43" t="n">
-        <v>313.0892556928229</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P43" t="n">
-        <v>86.87876701049535</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>301.9332887341498</v>
       </c>
       <c r="P44" t="n">
-        <v>252.0300333907965</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q44" t="n">
         <v>181.3569162787562</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J45" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K45" t="n">
         <v>151.6009105932828</v>
@@ -38116,10 +38116,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.8787900293576</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R45" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K46" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L46" t="n">
-        <v>341.4544231826987</v>
+        <v>442.6221931215603</v>
       </c>
       <c r="M46" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N46" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O46" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P46" t="n">
-        <v>86.87876701049535</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.02609852463077</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
